--- a/Marcas Motos/Marcas.xlsx
+++ b/Marcas Motos/Marcas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\LOGOS-DATA\Marcas Motos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF67503A-DA40-45AC-839B-B54E18798B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6193BFB-BBC7-41C4-900E-193E6F6B9E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{ED26C233-8E14-4286-B48F-437428073D44}"/>
   </bookViews>
@@ -48,48 +48,6 @@
     <t>Bajaj</t>
   </si>
   <si>
-    <t>1/1/2021</t>
-  </si>
-  <si>
-    <t>1/10/2021</t>
-  </si>
-  <si>
-    <t>1/11/2020</t>
-  </si>
-  <si>
-    <t>1/12/2020</t>
-  </si>
-  <si>
-    <t>1/2/2021</t>
-  </si>
-  <si>
-    <t>1/3/2021</t>
-  </si>
-  <si>
-    <t>1/4/2021</t>
-  </si>
-  <si>
-    <t>1/5/2021</t>
-  </si>
-  <si>
-    <t>1/6/2021</t>
-  </si>
-  <si>
-    <t>1/7/2020</t>
-  </si>
-  <si>
-    <t>1/7/2021</t>
-  </si>
-  <si>
-    <t>1/8/2020</t>
-  </si>
-  <si>
-    <t>1/8/2021</t>
-  </si>
-  <si>
-    <t>1/9/2021</t>
-  </si>
-  <si>
     <t>Benelli</t>
   </si>
   <si>
@@ -166,16 +124,64 @@
   </si>
   <si>
     <t>Zontes</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>01/10/2021</t>
+  </si>
+  <si>
+    <t>01/11/2020</t>
+  </si>
+  <si>
+    <t>01/12/2020</t>
+  </si>
+  <si>
+    <t>01/02/2021</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>01/08/2020</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>01/09/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -519,9 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BDCF0-8D1E-46F1-81C1-5BDBDCC32628}">
   <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C241"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -541,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>271</v>
@@ -549,464 +553,464 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>1007</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>135</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>178</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>230</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>432</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>418</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>441</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>488</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>390</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>70</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>706</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>260</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>108</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C20">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>73</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>112</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>89</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C25">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>99</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>127</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>48</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>173</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>218</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>147</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>351</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C39">
-        <v>113</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>181</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C41">
-        <v>288</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C42">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>277</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C44">
-        <v>343</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1014,186 +1018,186 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>166</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C47">
-        <v>332</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C48">
-        <v>316</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C49">
-        <v>260</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C50">
-        <v>296</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C51">
-        <v>224</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C52">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C53">
-        <v>612</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C54">
-        <v>381</v>
+        <v>863</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C55">
-        <v>226</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C56">
-        <v>695</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C61">
-        <v>535</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,524 +1205,524 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C62">
-        <v>1029</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C63">
-        <v>412</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C64">
-        <v>863</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C65">
-        <v>1132</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C66">
-        <v>1382</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C67">
-        <v>1018</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>741</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>766</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C70">
-        <v>310</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C71">
-        <v>2011</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C72">
-        <v>1115</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C73">
-        <v>927</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C74">
-        <v>1411</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C75">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C76">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C77">
-        <v>67</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C78">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C79">
-        <v>38</v>
+        <v>834</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C81">
-        <v>91</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C82">
-        <v>49</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C83">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C84">
-        <v>99</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C85">
-        <v>47</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C86">
-        <v>108</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C87">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C90">
-        <v>29</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C91">
-        <v>101</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C92">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C93">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C94">
-        <v>70</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C95">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C96">
-        <v>57</v>
+        <v>956</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C97">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C98">
-        <v>60</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C99">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C100">
-        <v>100</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C101">
-        <v>60</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C102">
-        <v>45</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C103">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C104">
-        <v>100</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C105">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C106">
-        <v>162</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C107">
-        <v>152</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C108">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C109">
         <v>51</v>
@@ -1726,1055 +1730,1055 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C110">
-        <v>323</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C111">
-        <v>408</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C112">
-        <v>360</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C113">
-        <v>500</v>
+        <v>863</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C114">
-        <v>80</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C115">
-        <v>336</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C116">
-        <v>283</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C117">
-        <v>234</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C118">
-        <v>238</v>
+        <v>741</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C119">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C121">
-        <v>26</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C122">
-        <v>121</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C123">
-        <v>204</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C124">
-        <v>169</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C125">
-        <v>122</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C126">
-        <v>164</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C127">
-        <v>179</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C128">
-        <v>236</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C129">
-        <v>54</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C130">
-        <v>41</v>
+        <v>488</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C131">
-        <v>195</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C132">
-        <v>250</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C133">
-        <v>116</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C134">
-        <v>241</v>
+        <v>766</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C136">
-        <v>364</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C137">
-        <v>46</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C138">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C139">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C140">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C141">
-        <v>75</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C142">
-        <v>60</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C143">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C144">
-        <v>54</v>
+        <v>950</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C145">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C146">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C149">
-        <v>23</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C150">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C151">
-        <v>50</v>
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C153">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C154">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C155">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C156">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C157">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C158">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C159">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C160">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C161">
-        <v>52</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C162">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C163">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C164">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C165">
-        <v>285</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C166">
-        <v>322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C167">
-        <v>209</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C168">
-        <v>196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C169">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C170">
-        <v>51</v>
+        <v>390</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C171">
-        <v>285</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C172">
-        <v>192</v>
+        <v>113</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C173">
-        <v>328</v>
+        <v>612</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C174">
-        <v>200</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C175">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C176">
-        <v>354</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>336</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C179">
-        <v>379</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C180">
-        <v>218</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C181">
-        <v>237</v>
+        <v>328</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C182">
-        <v>89</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C183">
-        <v>379</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C184">
-        <v>264</v>
+        <v>884</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C185">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C186">
-        <v>255</v>
+        <v>70</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C187">
-        <v>260</v>
+        <v>99</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C188">
-        <v>114</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C189">
-        <v>414</v>
+        <v>381</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C190">
-        <v>449</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C191">
-        <v>437</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C192">
-        <v>323</v>
+        <v>99</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C194">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C195">
-        <v>34</v>
+        <v>283</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C196">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C197">
-        <v>32</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C198">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B199" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199">
         <v>9</v>
-      </c>
-      <c r="C199">
-        <v>42</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C200">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C201">
-        <v>33</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C202">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C203">
-        <v>10</v>
+        <v>449</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C204">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C205">
         <v>15</v>
@@ -2782,401 +2786,405 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C206">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C207">
-        <v>43</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C208">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C209">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C210">
-        <v>34</v>
+        <v>706</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C212">
-        <v>5</v>
+        <v>288</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C213">
-        <v>661</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C214">
-        <v>1514</v>
+        <v>927</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C215">
-        <v>417</v>
+        <v>47</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C216">
-        <v>511</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C217">
-        <v>834</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C218">
-        <v>956</v>
+        <v>116</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C219">
-        <v>863</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C220">
-        <v>1206</v>
+        <v>59</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C221">
-        <v>950</v>
+        <v>109</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C222">
-        <v>377</v>
+        <v>437</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C223">
-        <v>884</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C224">
-        <v>1069</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C225">
-        <v>1409</v>
+        <v>209</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C226">
-        <v>1431</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C227">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C228">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B229" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C229">
-        <v>202</v>
+        <v>695</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C230">
-        <v>12</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C231">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C232">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C233">
-        <v>44</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C234">
-        <v>125</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" t="s">
         <v>43</v>
       </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
       <c r="C235">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" t="s">
         <v>43</v>
       </c>
-      <c r="B236" t="s">
-        <v>8</v>
-      </c>
       <c r="C236">
-        <v>172</v>
+        <v>91</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
+        <v>21</v>
+      </c>
+      <c r="B237" t="s">
         <v>43</v>
       </c>
-      <c r="B237" t="s">
-        <v>9</v>
-      </c>
       <c r="C237">
-        <v>85</v>
+        <v>354</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" t="s">
         <v>43</v>
       </c>
-      <c r="B238" t="s">
-        <v>12</v>
-      </c>
       <c r="C238">
-        <v>100</v>
+        <v>323</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
+        <v>25</v>
+      </c>
+      <c r="B239" t="s">
         <v>43</v>
       </c>
-      <c r="B239" t="s">
-        <v>13</v>
-      </c>
       <c r="C239">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>27</v>
+      </c>
+      <c r="B240" t="s">
         <v>43</v>
       </c>
-      <c r="B240" t="s">
-        <v>15</v>
-      </c>
       <c r="C240">
-        <v>53</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
+        <v>28</v>
+      </c>
+      <c r="B241" t="s">
         <v>43</v>
       </c>
-      <c r="B241" t="s">
-        <v>16</v>
-      </c>
       <c r="C241">
-        <v>209</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C241">
+    <sortCondition ref="B2:B241"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Marcas Motos/Marcas.xlsx
+++ b/Marcas Motos/Marcas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\LOGOS-DATA\Marcas Motos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\DATA INTELLIGENCE Dropbox\Diseño DATA's\LOGOS-DATA\Marcas Motos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126F5E8C-6F43-4AB2-9E51-68D94FDDADB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056F081D-2A68-4DF5-AC1C-CFC3F3DE5ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{ED26C233-8E14-4286-B48F-437428073D44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{ED26C233-8E14-4286-B48F-437428073D44}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,13 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
     <sheet name="Hoja3 (2)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja1!$A$1:$E$253</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId6"/>
-    <pivotCache cacheId="18" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="6" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,9 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="103">
   <si>
     <t>Marca</t>
   </si>
@@ -349,6 +350,9 @@
   <si>
     <t>Máx. de Unidades Vendidas</t>
   </si>
+  <si>
+    <t>01/09/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -385,7 +389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -393,12 +397,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,6 +421,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -427,7 +443,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="44537.710831018521" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="240" xr:uid="{86DD1E20-B222-4047-97F4-9C8AB8BF6F24}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D241" sheet="Hoja1"/>
+    <worksheetSource ref="A1:D253" sheet="Hoja1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Marca" numFmtId="0">
@@ -525,7 +541,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="44537.71101979167" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="240" xr:uid="{AA614C6D-6819-4B37-B18F-8DDABB659155}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E241" sheet="Hoja1"/>
+    <worksheetSource ref="A1:E253" sheet="Hoja1"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Marca" numFmtId="0">
@@ -3769,7 +3785,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B53FAF59-42FC-47FA-BAFD-6CB907E86956}" name="TablaDinámica2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B53FAF59-42FC-47FA-BAFD-6CB907E86956}" name="TablaDinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:P32" firstHeaderRow="1" firstDataRow="3" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4090,7 +4106,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{627EAF1C-4DD8-4206-B153-2C3327EF2DE3}" name="TablaDinámica3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{627EAF1C-4DD8-4206-B153-2C3327EF2DE3}" name="TablaDinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -4182,7 +4198,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE2F0C2C-AAE1-464C-8DE7-F2B348AA82E4}" name="TablaDinámica2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE2F0C2C-AAE1-464C-8DE7-F2B348AA82E4}" name="TablaDinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4735,19 +4751,19 @@
   <dimension ref="A3:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -4755,7 +4771,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4776,7 +4792,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4797,7 +4813,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/benelli.png</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4818,7 +4834,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4839,7 +4855,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4860,7 +4876,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4881,7 +4897,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/harley.png</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4902,7 +4918,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4923,7 +4939,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4944,7 +4960,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/logosmotos.png</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4965,7 +4981,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4986,7 +5002,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Keeway.png</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5007,7 +5023,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5028,7 +5044,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kymco.png</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5049,7 +5065,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5070,7 +5086,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5091,7 +5107,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Polaris.png</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5112,7 +5128,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5133,7 +5149,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5154,7 +5170,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5175,7 +5191,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/sym.png</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5196,7 +5212,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5217,7 +5233,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/tm.png</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -5238,7 +5254,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -5259,7 +5275,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -5280,7 +5296,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -5301,7 +5317,7 @@
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -5335,14 +5351,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -5353,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1</v>
       </c>
@@ -5397,7 +5413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5447,7 +5463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5497,7 +5513,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5521,7 +5537,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5571,7 +5587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5617,7 +5633,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5667,7 +5683,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5697,7 +5713,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5747,7 +5763,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5793,7 +5809,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5821,7 +5837,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5871,7 +5887,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5895,7 +5911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5945,7 +5961,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5973,7 +5989,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6021,7 +6037,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6067,7 +6083,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6093,7 +6109,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6127,7 +6143,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6169,7 +6185,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6215,7 +6231,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6241,7 +6257,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6291,7 +6307,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6317,7 +6333,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6363,7 +6379,7 @@
       </c>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6397,7 +6413,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6447,7 +6463,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -6485,7 +6501,7 @@
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -6534,12 +6550,12 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -6550,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -6561,7 +6577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -6572,7 +6588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -6583,7 +6599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -6594,7 +6610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -6605,7 +6621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -6616,7 +6632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -6627,7 +6643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -6638,7 +6654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -6649,7 +6665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -6660,7 +6676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -6671,7 +6687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -6682,7 +6698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -6693,12 +6709,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -6710,18 +6726,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BDCF0-8D1E-46F1-81C1-5BDBDCC32628}">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="84.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6738,15 +6754,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="D2" t="str">
         <f>+VLOOKUP(A2,Hoja2!$B$4:$F$30,5,0)</f>
@@ -6754,18 +6770,18 @@
       </c>
       <c r="E2">
         <f>+VLOOKUP(B2,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D3" t="str">
         <f>+VLOOKUP(A3,Hoja2!$B$4:$F$30,5,0)</f>
@@ -6773,4537 +6789,4562 @@
       </c>
       <c r="E3">
         <f>+VLOOKUP(B3,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>277</v>
+        <v>61</v>
       </c>
       <c r="D4" t="str">
         <f>+VLOOKUP(A4,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E4">
         <f>+VLOOKUP(B4,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>535</v>
+        <v>150</v>
       </c>
       <c r="D5" t="str">
         <f>+VLOOKUP(A5,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E5">
         <f>+VLOOKUP(B5,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D6" t="str">
         <f>+VLOOKUP(A6,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/harley.png</v>
       </c>
       <c r="E6">
         <f>+VLOOKUP(B6,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="D7" t="str">
         <f>+VLOOKUP(A7,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E7">
         <f>+VLOOKUP(B7,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D8" t="str">
         <f>+VLOOKUP(A8,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E8">
         <f>+VLOOKUP(B8,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="D9" t="str">
         <f>+VLOOKUP(A9,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/logosmotos.png</v>
       </c>
       <c r="E9">
         <f>+VLOOKUP(B9,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D10" t="str">
         <f>+VLOOKUP(A10,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E10">
         <f>+VLOOKUP(B10,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D11" t="str">
         <f>+VLOOKUP(A11,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E11">
         <f>+VLOOKUP(B11,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="D12" t="str">
         <f>+VLOOKUP(A12,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kymco.png</v>
       </c>
       <c r="E12">
         <f>+VLOOKUP(B12,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="D13" t="str">
         <f>+VLOOKUP(A13,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E13">
         <f>+VLOOKUP(B13,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D14" t="str">
         <f>+VLOOKUP(A14,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Polaris.png</v>
       </c>
       <c r="E14">
         <f>+VLOOKUP(B14,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="D15" t="str">
         <f>+VLOOKUP(A15,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
       </c>
       <c r="E15">
         <f>+VLOOKUP(B15,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D16" t="str">
         <f>+VLOOKUP(A16,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
       <c r="E16">
         <f>+VLOOKUP(B16,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="D17" t="str">
         <f>+VLOOKUP(A17,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E17">
         <f>+VLOOKUP(B17,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>1007</v>
+        <v>1</v>
       </c>
       <c r="D18" t="str">
         <f>+VLOOKUP(A18,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/sym.png</v>
       </c>
       <c r="E18">
         <f>+VLOOKUP(B18,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D19" t="str">
         <f>+VLOOKUP(A19,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/benelli.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E19">
         <f>+VLOOKUP(B19,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="D20" t="str">
         <f>+VLOOKUP(A20,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/tm.png</v>
       </c>
       <c r="E20">
         <f>+VLOOKUP(B20,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D21" t="str">
         <f>+VLOOKUP(A21,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E21">
         <f>+VLOOKUP(B21,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>343</v>
+        <v>1</v>
       </c>
       <c r="D22" t="str">
         <f>+VLOOKUP(A22,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
       </c>
       <c r="E22">
         <f>+VLOOKUP(B22,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>1029</v>
+        <v>377</v>
       </c>
       <c r="D23" t="str">
         <f>+VLOOKUP(A23,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E23">
         <f>+VLOOKUP(B23,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C24">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="D24" t="str">
         <f>+VLOOKUP(A24,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
       </c>
       <c r="E24">
         <f>+VLOOKUP(B24,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C25">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D25" t="str">
         <f>+VLOOKUP(A25,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
       </c>
       <c r="E25">
         <f>+VLOOKUP(B25,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D26" t="str">
         <f>+VLOOKUP(A26,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Keeway.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E26">
         <f>+VLOOKUP(B26,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C27">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D27" t="str">
         <f>+VLOOKUP(A27,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E27">
         <f>+VLOOKUP(B27,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="D28" t="str">
         <f>+VLOOKUP(A28,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E28">
         <f>+VLOOKUP(B28,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C29">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="D29" t="str">
         <f>+VLOOKUP(A29,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E29">
         <f>+VLOOKUP(B29,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
         <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>120</v>
       </c>
       <c r="D30" t="str">
         <f>+VLOOKUP(A30,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/harley.png</v>
       </c>
       <c r="E30">
         <f>+VLOOKUP(B30,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C31">
-        <v>322</v>
+        <v>1115</v>
       </c>
       <c r="D31" t="str">
         <f>+VLOOKUP(A31,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E31">
         <f>+VLOOKUP(B31,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C32">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="D32" t="str">
         <f>+VLOOKUP(A32,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E32">
         <f>+VLOOKUP(B32,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C33">
-        <v>1514</v>
+        <v>1</v>
       </c>
       <c r="D33" t="str">
         <f>+VLOOKUP(A33,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/logosmotos.png</v>
       </c>
       <c r="E33">
         <f>+VLOOKUP(B33,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C34">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D34" t="str">
         <f>+VLOOKUP(A34,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E34">
         <f>+VLOOKUP(B34,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <v>96</v>
+        <v>283</v>
       </c>
       <c r="D35" t="str">
         <f>+VLOOKUP(A35,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E35">
         <f>+VLOOKUP(B35,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D36" t="str">
         <f>+VLOOKUP(A36,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kymco.png</v>
       </c>
       <c r="E36">
         <f>+VLOOKUP(B36,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C37">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="D37" t="str">
         <f>+VLOOKUP(A37,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E37">
         <f>+VLOOKUP(B37,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D38" t="str">
         <f>+VLOOKUP(A38,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/harley.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Polaris.png</v>
       </c>
       <c r="E38">
         <f>+VLOOKUP(B38,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
         <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39">
-        <v>412</v>
       </c>
       <c r="D39" t="str">
         <f>+VLOOKUP(A39,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
       </c>
       <c r="E39">
         <f>+VLOOKUP(B39,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C40">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D40" t="str">
         <f>+VLOOKUP(A40,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
       <c r="E40">
         <f>+VLOOKUP(B40,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="D41" t="str">
         <f>+VLOOKUP(A41,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E41">
         <f>+VLOOKUP(B41,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D42" t="str">
         <f>+VLOOKUP(A42,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/sym.png</v>
       </c>
       <c r="E42">
         <f>+VLOOKUP(B42,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>449</v>
       </c>
       <c r="D43" t="str">
         <f>+VLOOKUP(A43,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kymco.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E43">
         <f>+VLOOKUP(B43,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C44">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D44" t="str">
         <f>+VLOOKUP(A44,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/tm.png</v>
       </c>
       <c r="E44">
         <f>+VLOOKUP(B44,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C45">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="D45" t="str">
         <f>+VLOOKUP(A45,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E45">
         <f>+VLOOKUP(B45,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C46">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="D46" t="str">
         <f>+VLOOKUP(A46,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
       </c>
       <c r="E46">
         <f>+VLOOKUP(B46,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>43</v>
+        <v>1069</v>
       </c>
       <c r="D47" t="str">
         <f>+VLOOKUP(A47,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E47">
         <f>+VLOOKUP(B47,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D48" t="str">
         <f>+VLOOKUP(A48,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
       </c>
       <c r="E48">
         <f>+VLOOKUP(B48,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C49">
-        <v>417</v>
+        <v>53</v>
       </c>
       <c r="D49" t="str">
         <f>+VLOOKUP(A49,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
       </c>
       <c r="E49">
         <f>+VLOOKUP(B49,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50">
-        <v>178</v>
+        <v>102</v>
+      </c>
+      <c r="C50" s="5">
+        <v>98</v>
       </c>
       <c r="D50" t="str">
         <f>+VLOOKUP(A50,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E50">
-        <f>+VLOOKUP(B50,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51">
-        <v>135</v>
+        <v>102</v>
+      </c>
+      <c r="C51" s="5">
+        <v>25</v>
       </c>
       <c r="D51" t="str">
         <f>+VLOOKUP(A51,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E51">
-        <f>+VLOOKUP(B51,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52">
-        <v>48</v>
+        <v>102</v>
+      </c>
+      <c r="C52" s="5">
+        <v>300</v>
       </c>
       <c r="D52" t="str">
         <f>+VLOOKUP(A52,Hoja2!$B$4:$F$30,5,0)</f>
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E52">
-        <f>+VLOOKUP(B52,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1124</v>
       </c>
       <c r="D53" t="str">
         <f>+VLOOKUP(A53,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/harley.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E53">
-        <f>+VLOOKUP(B53,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54">
-        <v>863</v>
+        <v>102</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2</v>
       </c>
       <c r="D54" t="str">
         <f>+VLOOKUP(A54,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/logosmotos.png</v>
       </c>
       <c r="E54">
-        <f>+VLOOKUP(B54,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55">
-        <v>44</v>
+        <v>102</v>
+      </c>
+      <c r="C55" s="5">
+        <v>148</v>
       </c>
       <c r="D55" t="str">
         <f>+VLOOKUP(A55,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E55">
-        <f>+VLOOKUP(B55,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56">
-        <v>57</v>
+        <v>102</v>
+      </c>
+      <c r="C56" s="5">
+        <v>48</v>
       </c>
       <c r="D56" t="str">
         <f>+VLOOKUP(A56,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kymco.png</v>
       </c>
       <c r="E56">
-        <f>+VLOOKUP(B56,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="C57" s="5">
+        <v>300</v>
       </c>
       <c r="D57" t="str">
         <f>+VLOOKUP(A57,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E57">
-        <f>+VLOOKUP(B57,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58">
-        <v>169</v>
+        <v>102</v>
+      </c>
+      <c r="C58" s="5">
+        <v>35</v>
       </c>
       <c r="D58" t="str">
         <f>+VLOOKUP(A58,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
       <c r="E58">
-        <f>+VLOOKUP(B58,Hoja4!$E$3:$F$16,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="5">
         <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59">
-        <v>23</v>
       </c>
       <c r="D59" t="str">
         <f>+VLOOKUP(A59,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/sym.png</v>
       </c>
       <c r="E59">
-        <f>+VLOOKUP(B59,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60">
-        <v>26</v>
+        <v>102</v>
+      </c>
+      <c r="C60" s="5">
+        <v>7</v>
       </c>
       <c r="D60" t="str">
         <f>+VLOOKUP(A60,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/tm.png</v>
       </c>
       <c r="E60">
-        <f>+VLOOKUP(B60,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61">
-        <v>196</v>
+        <v>102</v>
+      </c>
+      <c r="C61" s="5">
+        <v>998</v>
       </c>
       <c r="D61" t="str">
         <f>+VLOOKUP(A61,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E61">
-        <f>+VLOOKUP(B61,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62">
-        <v>89</v>
+        <v>32</v>
+      </c>
+      <c r="C62" s="5">
+        <v>135</v>
       </c>
       <c r="D62" t="str">
         <f>+VLOOKUP(A62,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E62">
-        <f>+VLOOKUP(B62,Hoja4!$E$3:$F$16,2,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D63" t="str">
         <f>+VLOOKUP(A63,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E63">
-        <f>+VLOOKUP(B63,Hoja4!$E$3:$F$16,2,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D64" t="str">
         <f>+VLOOKUP(A64,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E64">
-        <f>+VLOOKUP(B64,Hoja4!$E$3:$F$16,2,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65">
-        <v>511</v>
+        <v>166</v>
       </c>
       <c r="D65" t="str">
         <f>+VLOOKUP(A65,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E65">
-        <f>+VLOOKUP(B65,Hoja4!$E$3:$F$16,2,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C66">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="D66" t="str">
         <f>+VLOOKUP(A66,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/harley.png</v>
       </c>
       <c r="E66">
-        <f>+VLOOKUP(B66,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C67">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="D67" t="str">
         <f>+VLOOKUP(A67,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E67">
-        <f>+VLOOKUP(B67,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C68">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="D68" t="str">
         <f>+VLOOKUP(A68,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E68">
-        <f>+VLOOKUP(B68,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C69">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="D69" t="str">
         <f>+VLOOKUP(A69,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E69">
-        <f>+VLOOKUP(B69,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C70">
-        <v>1132</v>
+        <v>152</v>
       </c>
       <c r="D70" t="str">
         <f>+VLOOKUP(A70,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E70">
-        <f>+VLOOKUP(B70,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D71" t="str">
         <f>+VLOOKUP(A71,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kymco.png</v>
       </c>
       <c r="E71">
-        <f>+VLOOKUP(B71,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C72">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D72" t="str">
         <f>+VLOOKUP(A72,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E72">
-        <f>+VLOOKUP(B72,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C73">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="D73" t="str">
         <f>+VLOOKUP(A73,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E73">
-        <f>+VLOOKUP(B73,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C74">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="D74" t="str">
         <f>+VLOOKUP(A74,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E74">
-        <f>+VLOOKUP(B74,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C75">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D75" t="str">
         <f>+VLOOKUP(A75,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E75">
-        <f>+VLOOKUP(B75,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C76">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D76" t="str">
         <f>+VLOOKUP(A76,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
       </c>
       <c r="E76">
-        <f>+VLOOKUP(B76,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C77">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="D77" t="str">
         <f>+VLOOKUP(A77,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E77">
-        <f>+VLOOKUP(B77,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C78">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="D78" t="str">
         <f>+VLOOKUP(A78,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E78">
-        <f>+VLOOKUP(B78,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79">
-        <v>834</v>
+        <v>135</v>
       </c>
       <c r="D79" t="str">
         <f>+VLOOKUP(A79,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E79">
-        <f>+VLOOKUP(B79,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D80" t="str">
         <f>+VLOOKUP(A80,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E80">
-        <f>+VLOOKUP(B80,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="D81" t="str">
         <f>+VLOOKUP(A81,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/harley.png</v>
       </c>
       <c r="E81">
-        <f>+VLOOKUP(B81,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C82">
-        <v>432</v>
+        <v>863</v>
       </c>
       <c r="D82" t="str">
         <f>+VLOOKUP(A82,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E82">
-        <f>+VLOOKUP(B82,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C83">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D83" t="str">
         <f>+VLOOKUP(A83,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E83">
-        <f>+VLOOKUP(B83,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C84">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="D84" t="str">
         <f>+VLOOKUP(A84,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E84">
-        <f>+VLOOKUP(B84,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C85">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="D85" t="str">
         <f>+VLOOKUP(A85,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E85">
-        <f>+VLOOKUP(B85,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C86">
-        <v>1382</v>
+        <v>169</v>
       </c>
       <c r="D86" t="str">
         <f>+VLOOKUP(A86,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E86">
-        <f>+VLOOKUP(B86,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C87">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D87" t="str">
         <f>+VLOOKUP(A87,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E87">
-        <f>+VLOOKUP(B87,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C88">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D88" t="str">
         <f>+VLOOKUP(A88,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/logosmotos.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
       <c r="E88">
-        <f>+VLOOKUP(B88,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="D89" t="str">
         <f>+VLOOKUP(A89,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E89">
-        <f>+VLOOKUP(B89,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C90">
-        <v>323</v>
+        <v>89</v>
       </c>
       <c r="D90" t="str">
         <f>+VLOOKUP(A90,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E90">
-        <f>+VLOOKUP(B90,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C91">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="D91" t="str">
         <f>+VLOOKUP(A91,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E91">
-        <f>+VLOOKUP(B91,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C92">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D92" t="str">
         <f>+VLOOKUP(A92,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
       </c>
       <c r="E92">
-        <f>+VLOOKUP(B92,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C93">
-        <v>61</v>
+        <v>511</v>
       </c>
       <c r="D93" t="str">
         <f>+VLOOKUP(A93,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E93">
-        <f>+VLOOKUP(B93,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C94">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D94" t="str">
         <f>+VLOOKUP(A94,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E94">
-        <f>+VLOOKUP(B94,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C95">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="D95" t="str">
         <f>+VLOOKUP(A95,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E95">
-        <f>+VLOOKUP(B95,Hoja4!$E$3:$F$16,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>27</v>
-      </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C96">
-        <v>956</v>
+        <v>277</v>
       </c>
       <c r="D96" t="str">
         <f>+VLOOKUP(A96,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E96">
-        <f>+VLOOKUP(B96,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C97">
-        <v>85</v>
+        <v>535</v>
       </c>
       <c r="D97" t="str">
         <f>+VLOOKUP(A97,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E97">
-        <f>+VLOOKUP(B97,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C98">
-        <v>418</v>
+        <v>40</v>
       </c>
       <c r="D98" t="str">
         <f>+VLOOKUP(A98,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E98">
-        <f>+VLOOKUP(B98,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C99">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D99" t="str">
         <f>+VLOOKUP(A99,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E99">
-        <f>+VLOOKUP(B99,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C100">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D100" t="str">
         <f>+VLOOKUP(A100,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E100">
-        <f>+VLOOKUP(B100,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C101">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="D101" t="str">
         <f>+VLOOKUP(A101,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E101">
-        <f>+VLOOKUP(B101,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C102">
-        <v>1018</v>
+        <v>18</v>
       </c>
       <c r="D102" t="str">
         <f>+VLOOKUP(A102,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E102">
-        <f>+VLOOKUP(B102,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C103">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D103" t="str">
         <f>+VLOOKUP(A103,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
       </c>
       <c r="E103">
-        <f>+VLOOKUP(B103,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C104">
-        <v>408</v>
+        <v>285</v>
       </c>
       <c r="D104" t="str">
         <f>+VLOOKUP(A104,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E104">
-        <f>+VLOOKUP(B104,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C105">
-        <v>179</v>
+        <v>379</v>
       </c>
       <c r="D105" t="str">
         <f>+VLOOKUP(A105,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E105">
-        <f>+VLOOKUP(B105,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C106">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D106" t="str">
         <f>+VLOOKUP(A106,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E106">
-        <f>+VLOOKUP(B106,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C107">
-        <v>29</v>
+        <v>661</v>
       </c>
       <c r="D107" t="str">
         <f>+VLOOKUP(A107,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E107">
-        <f>+VLOOKUP(B107,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C108">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D108" t="str">
         <f>+VLOOKUP(A108,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
       </c>
       <c r="E108">
-        <f>+VLOOKUP(B108,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C109">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D109" t="str">
         <f>+VLOOKUP(A109,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
       </c>
       <c r="E109">
-        <f>+VLOOKUP(B109,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C110">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="D110" t="str">
         <f>+VLOOKUP(A110,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E110">
-        <f>+VLOOKUP(B110,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C111">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D111" t="str">
         <f>+VLOOKUP(A111,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E111">
-        <f>+VLOOKUP(B111,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C112">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="D112" t="str">
         <f>+VLOOKUP(A112,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E112">
-        <f>+VLOOKUP(B112,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C113">
-        <v>863</v>
+        <v>332</v>
       </c>
       <c r="D113" t="str">
         <f>+VLOOKUP(A113,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E113">
-        <f>+VLOOKUP(B113,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C114">
-        <v>441</v>
+        <v>1132</v>
       </c>
       <c r="D114" t="str">
         <f>+VLOOKUP(A114,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E114">
-        <f>+VLOOKUP(B114,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C115">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D115" t="str">
         <f>+VLOOKUP(A115,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E115">
-        <f>+VLOOKUP(B115,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C116">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D116" t="str">
         <f>+VLOOKUP(A116,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E116">
-        <f>+VLOOKUP(B116,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C117">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="D117" t="str">
         <f>+VLOOKUP(A117,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E117">
-        <f>+VLOOKUP(B117,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C118">
-        <v>741</v>
+        <v>69</v>
       </c>
       <c r="D118" t="str">
         <f>+VLOOKUP(A118,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E118">
-        <f>+VLOOKUP(B118,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C119">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D119" t="str">
         <f>+VLOOKUP(A119,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
       <c r="E119">
-        <f>+VLOOKUP(B119,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C120">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="D120" t="str">
         <f>+VLOOKUP(A120,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E120">
-        <f>+VLOOKUP(B120,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C121">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="D121" t="str">
         <f>+VLOOKUP(A121,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E121">
-        <f>+VLOOKUP(B121,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C122">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="D122" t="str">
         <f>+VLOOKUP(A122,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E122">
-        <f>+VLOOKUP(B122,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C123">
-        <v>60</v>
+        <v>834</v>
       </c>
       <c r="D123" t="str">
         <f>+VLOOKUP(A123,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E123">
-        <f>+VLOOKUP(B123,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C124">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D124" t="str">
         <f>+VLOOKUP(A124,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
       </c>
       <c r="E124">
-        <f>+VLOOKUP(B124,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C125">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="D125" t="str">
         <f>+VLOOKUP(A125,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
       </c>
       <c r="E125">
-        <f>+VLOOKUP(B125,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C126">
-        <v>33</v>
+        <v>432</v>
       </c>
       <c r="D126" t="str">
         <f>+VLOOKUP(A126,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E126">
-        <f>+VLOOKUP(B126,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C127">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="D127" t="str">
         <f>+VLOOKUP(A127,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E127">
-        <f>+VLOOKUP(B127,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C128">
-        <v>1206</v>
+        <v>218</v>
       </c>
       <c r="D128" t="str">
         <f>+VLOOKUP(A128,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E128">
-        <f>+VLOOKUP(B128,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C129">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="D129" t="str">
         <f>+VLOOKUP(A129,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E129">
-        <f>+VLOOKUP(B129,Hoja4!$E$3:$F$16,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>3</v>
-      </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C130">
-        <v>488</v>
+        <v>1382</v>
       </c>
       <c r="D130" t="str">
         <f>+VLOOKUP(A130,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E130">
-        <f>+VLOOKUP(B130,Hoja4!$E$3:$F$16,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>5</v>
-      </c>
       <c r="B131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131">
         <v>38</v>
-      </c>
-      <c r="C131">
-        <v>124</v>
       </c>
       <c r="D131" t="str">
         <f>+VLOOKUP(A131,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E131">
-        <f>+VLOOKUP(B131,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C132">
-        <v>351</v>
+        <v>29</v>
       </c>
       <c r="D132" t="str">
         <f>+VLOOKUP(A132,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/logosmotos.png</v>
       </c>
       <c r="E132">
-        <f>+VLOOKUP(B132,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C133">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="D133" t="str">
         <f>+VLOOKUP(A133,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E133">
-        <f>+VLOOKUP(B133,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C134">
-        <v>766</v>
+        <v>323</v>
       </c>
       <c r="D134" t="str">
         <f>+VLOOKUP(A134,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E134">
-        <f>+VLOOKUP(B134,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C135">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="D135" t="str">
         <f>+VLOOKUP(A135,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E135">
-        <f>+VLOOKUP(B135,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C136">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D136" t="str">
         <f>+VLOOKUP(A136,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E136">
-        <f>+VLOOKUP(B136,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C137">
-        <v>500</v>
+        <v>61</v>
       </c>
       <c r="D137" t="str">
         <f>+VLOOKUP(A137,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
       <c r="E137">
-        <f>+VLOOKUP(B137,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C138">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="D138" t="str">
         <f>+VLOOKUP(A138,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E138">
-        <f>+VLOOKUP(B138,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C139">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D139" t="str">
         <f>+VLOOKUP(A139,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E139">
-        <f>+VLOOKUP(B139,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C140">
-        <v>29</v>
+        <v>956</v>
       </c>
       <c r="D140" t="str">
         <f>+VLOOKUP(A140,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E140">
-        <f>+VLOOKUP(B140,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C141">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="D141" t="str">
         <f>+VLOOKUP(A141,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
       </c>
       <c r="E141">
-        <f>+VLOOKUP(B141,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C142">
-        <v>260</v>
+        <v>418</v>
       </c>
       <c r="D142" t="str">
         <f>+VLOOKUP(A142,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E142">
-        <f>+VLOOKUP(B142,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C143">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D143" t="str">
         <f>+VLOOKUP(A143,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E143">
-        <f>+VLOOKUP(B143,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C144">
-        <v>950</v>
+        <v>176</v>
       </c>
       <c r="D144" t="str">
         <f>+VLOOKUP(A144,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E144">
-        <f>+VLOOKUP(B144,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C145">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="D145" t="str">
         <f>+VLOOKUP(A145,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E145">
-        <f>+VLOOKUP(B145,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C146">
-        <v>75</v>
+        <v>1018</v>
       </c>
       <c r="D146" t="str">
         <f>+VLOOKUP(A146,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E146">
-        <f>+VLOOKUP(B146,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C147">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D147" t="str">
         <f>+VLOOKUP(A147,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E147">
-        <f>+VLOOKUP(B147,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C148">
-        <v>61</v>
+        <v>408</v>
       </c>
       <c r="D148" t="str">
         <f>+VLOOKUP(A148,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E148">
-        <f>+VLOOKUP(B148,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C149">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="D149" t="str">
         <f>+VLOOKUP(A149,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E149">
-        <f>+VLOOKUP(B149,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C150">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D150" t="str">
         <f>+VLOOKUP(A150,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/harley.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E150">
-        <f>+VLOOKUP(B150,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C151">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="D151" t="str">
         <f>+VLOOKUP(A151,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
       </c>
       <c r="E151">
-        <f>+VLOOKUP(B151,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C152">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D152" t="str">
         <f>+VLOOKUP(A152,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
       <c r="E152">
-        <f>+VLOOKUP(B152,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D153" t="str">
         <f>+VLOOKUP(A153,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/logosmotos.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E153">
-        <f>+VLOOKUP(B153,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C154">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D154" t="str">
         <f>+VLOOKUP(A154,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E154">
-        <f>+VLOOKUP(B154,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C155">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D155" t="str">
         <f>+VLOOKUP(A155,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E155">
-        <f>+VLOOKUP(B155,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C156">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D156" t="str">
         <f>+VLOOKUP(A156,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kymco.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
       </c>
       <c r="E156">
-        <f>+VLOOKUP(B156,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C157">
-        <v>41</v>
+        <v>863</v>
       </c>
       <c r="D157" t="str">
         <f>+VLOOKUP(A157,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E157">
-        <f>+VLOOKUP(B157,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="D158" t="str">
         <f>+VLOOKUP(A158,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Polaris.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E158">
-        <f>+VLOOKUP(B158,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D159" t="str">
         <f>+VLOOKUP(A159,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E159">
-        <f>+VLOOKUP(B159,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C160">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="D160" t="str">
         <f>+VLOOKUP(A160,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E160">
-        <f>+VLOOKUP(B160,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C161">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="D161" t="str">
         <f>+VLOOKUP(A161,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E161">
-        <f>+VLOOKUP(B161,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>741</v>
       </c>
       <c r="D162" t="str">
         <f>+VLOOKUP(A162,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/sym.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E162">
-        <f>+VLOOKUP(B162,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C163">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D163" t="str">
         <f>+VLOOKUP(A163,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E163">
-        <f>+VLOOKUP(B163,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D164" t="str">
         <f>+VLOOKUP(A164,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/tm.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E164">
-        <f>+VLOOKUP(B164,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C165">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="D165" t="str">
         <f>+VLOOKUP(A165,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E165">
-        <f>+VLOOKUP(B165,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="D166" t="str">
         <f>+VLOOKUP(A166,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E166">
-        <f>+VLOOKUP(B166,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C167">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="D167" t="str">
         <f>+VLOOKUP(A167,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E167">
-        <f>+VLOOKUP(B167,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B168" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C168">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D168" t="str">
         <f>+VLOOKUP(A168,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
       </c>
       <c r="E168">
-        <f>+VLOOKUP(B168,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B169" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C169">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="D169" t="str">
         <f>+VLOOKUP(A169,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E169">
-        <f>+VLOOKUP(B169,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C170">
-        <v>390</v>
+        <v>33</v>
       </c>
       <c r="D170" t="str">
         <f>+VLOOKUP(A170,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E170">
-        <f>+VLOOKUP(B170,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C171">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="D171" t="str">
         <f>+VLOOKUP(A171,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
       </c>
       <c r="E171">
-        <f>+VLOOKUP(B171,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C172">
-        <v>113</v>
+        <v>1206</v>
       </c>
       <c r="D172" t="str">
         <f>+VLOOKUP(A172,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E172">
-        <f>+VLOOKUP(B172,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C173">
-        <v>612</v>
+        <v>202</v>
       </c>
       <c r="D173" t="str">
         <f>+VLOOKUP(A173,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
       </c>
       <c r="E173">
-        <f>+VLOOKUP(B173,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C174">
-        <v>2011</v>
+        <v>488</v>
       </c>
       <c r="D174" t="str">
         <f>+VLOOKUP(A174,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E174">
-        <f>+VLOOKUP(B174,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C175">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D175" t="str">
         <f>+VLOOKUP(A175,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E175">
-        <f>+VLOOKUP(B175,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C176">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="D176" t="str">
         <f>+VLOOKUP(A176,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E176">
-        <f>+VLOOKUP(B176,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C177">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="D177" t="str">
         <f>+VLOOKUP(A177,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E177">
-        <f>+VLOOKUP(B177,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C178">
-        <v>195</v>
+        <v>766</v>
       </c>
       <c r="D178" t="str">
         <f>+VLOOKUP(A178,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E178">
-        <f>+VLOOKUP(B178,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C179">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D179" t="str">
         <f>+VLOOKUP(A179,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E179">
-        <f>+VLOOKUP(B179,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C180">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D180" t="str">
         <f>+VLOOKUP(A180,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E180">
-        <f>+VLOOKUP(B180,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C181">
-        <v>328</v>
+        <v>500</v>
       </c>
       <c r="D181" t="str">
         <f>+VLOOKUP(A181,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E181">
-        <f>+VLOOKUP(B181,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C182">
-        <v>414</v>
+        <v>54</v>
       </c>
       <c r="D182" t="str">
         <f>+VLOOKUP(A182,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E182">
-        <f>+VLOOKUP(B182,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C183">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D183" t="str">
         <f>+VLOOKUP(A183,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E183">
-        <f>+VLOOKUP(B183,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C184">
-        <v>884</v>
+        <v>29</v>
       </c>
       <c r="D184" t="str">
         <f>+VLOOKUP(A184,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
       <c r="E184">
-        <f>+VLOOKUP(B184,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C185">
-        <v>126</v>
+        <v>285</v>
       </c>
       <c r="D185" t="str">
         <f>+VLOOKUP(A185,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E185">
-        <f>+VLOOKUP(B185,Hoja4!$E$3:$F$16,2,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C186">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="D186" t="str">
         <f>+VLOOKUP(A186,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E186">
-        <f>+VLOOKUP(B186,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C187">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D187" t="str">
         <f>+VLOOKUP(A187,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E187">
-        <f>+VLOOKUP(B187,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C188">
-        <v>181</v>
+        <v>950</v>
       </c>
       <c r="D188" t="str">
         <f>+VLOOKUP(A188,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E188">
-        <f>+VLOOKUP(B188,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B189" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C189">
-        <v>381</v>
+        <v>100</v>
       </c>
       <c r="D189" t="str">
         <f>+VLOOKUP(A189,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
       </c>
       <c r="E189">
-        <f>+VLOOKUP(B189,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B190" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C190">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="D190" t="str">
         <f>+VLOOKUP(A190,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/harley.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E190">
-        <f>+VLOOKUP(B190,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C191">
-        <v>1115</v>
+        <v>134</v>
       </c>
       <c r="D191" t="str">
         <f>+VLOOKUP(A191,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E191">
-        <f>+VLOOKUP(B191,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C192">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D192" t="str">
         <f>+VLOOKUP(A192,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E192">
-        <f>+VLOOKUP(B192,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>612</v>
       </c>
       <c r="D193" t="str">
         <f>+VLOOKUP(A193,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/logosmotos.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E193">
-        <f>+VLOOKUP(B193,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C194">
-        <v>60</v>
+        <v>2011</v>
       </c>
       <c r="D194" t="str">
         <f>+VLOOKUP(A194,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E194">
-        <f>+VLOOKUP(B194,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C195">
-        <v>283</v>
+        <v>110</v>
       </c>
       <c r="D195" t="str">
         <f>+VLOOKUP(A195,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E195">
-        <f>+VLOOKUP(B195,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C196">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="D196" t="str">
         <f>+VLOOKUP(A196,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kymco.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E196">
-        <f>+VLOOKUP(B196,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C197">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="D197" t="str">
         <f>+VLOOKUP(A197,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E197">
-        <f>+VLOOKUP(B197,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B198" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D198" t="str">
         <f>+VLOOKUP(A198,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Polaris.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E198">
-        <f>+VLOOKUP(B198,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B199" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C199">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D199" t="str">
         <f>+VLOOKUP(A199,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E199">
-        <f>+VLOOKUP(B199,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B200" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C200">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="D200" t="str">
         <f>+VLOOKUP(A200,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/regalraptor.png</v>
       </c>
       <c r="E200">
-        <f>+VLOOKUP(B200,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C201">
-        <v>200</v>
+        <v>328</v>
       </c>
       <c r="D201" t="str">
         <f>+VLOOKUP(A201,Hoja2!$B$4:$F$30,5,0)</f>
         <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E201">
-        <f>+VLOOKUP(B201,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B202" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="D202" t="str">
         <f>+VLOOKUP(A202,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/sym.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E202">
-        <f>+VLOOKUP(B202,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B203" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C203">
-        <v>449</v>
+        <v>52</v>
       </c>
       <c r="D203" t="str">
         <f>+VLOOKUP(A203,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E203">
-        <f>+VLOOKUP(B203,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C204">
-        <v>6</v>
+        <v>884</v>
       </c>
       <c r="D204" t="str">
         <f>+VLOOKUP(A204,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/tm.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E204">
-        <f>+VLOOKUP(B204,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B205" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C205">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D205" t="str">
         <f>+VLOOKUP(A205,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
       </c>
       <c r="E205">
-        <f>+VLOOKUP(B205,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C206">
-        <v>5</v>
+        <v>706</v>
       </c>
       <c r="D206" t="str">
         <f>+VLOOKUP(A206,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/voge.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E206">
-        <f>+VLOOKUP(B206,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B207" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C207">
-        <v>1069</v>
+        <v>127</v>
       </c>
       <c r="D207" t="str">
         <f>+VLOOKUP(A207,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E207">
-        <f>+VLOOKUP(B207,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C208">
-        <v>58</v>
+        <v>288</v>
       </c>
       <c r="D208" t="str">
         <f>+VLOOKUP(A208,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E208">
-        <f>+VLOOKUP(B208,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B209" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C209">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="D209" t="str">
         <f>+VLOOKUP(A209,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E209">
-        <f>+VLOOKUP(B209,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B210" t="s">
         <v>42</v>
       </c>
       <c r="C210">
-        <v>706</v>
+        <v>927</v>
       </c>
       <c r="D210" t="str">
         <f>+VLOOKUP(A210,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E210">
-        <f>+VLOOKUP(B210,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B211" t="s">
         <v>42</v>
       </c>
       <c r="C211">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="D211" t="str">
         <f>+VLOOKUP(A211,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E211">
-        <f>+VLOOKUP(B211,Hoja4!$E$3:$F$16,2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>6</v>
       </c>
       <c r="B212" t="s">
         <v>42</v>
       </c>
       <c r="C212">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="D212" t="str">
         <f>+VLOOKUP(A212,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E212">
-        <f>+VLOOKUP(B212,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B213" t="s">
         <v>42</v>
       </c>
       <c r="C213">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D213" t="str">
         <f>+VLOOKUP(A213,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E213">
-        <f>+VLOOKUP(B213,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B214" t="s">
         <v>42</v>
       </c>
       <c r="C214">
-        <v>927</v>
+        <v>116</v>
       </c>
       <c r="D214" t="str">
         <f>+VLOOKUP(A214,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E214">
-        <f>+VLOOKUP(B214,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B215" t="s">
         <v>42</v>
       </c>
       <c r="C215">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D215" t="str">
         <f>+VLOOKUP(A215,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E215">
-        <f>+VLOOKUP(B215,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B216" t="s">
         <v>42</v>
       </c>
       <c r="C216">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D216" t="str">
         <f>+VLOOKUP(A216,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
       <c r="E216">
-        <f>+VLOOKUP(B216,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B217" t="s">
         <v>42</v>
       </c>
       <c r="C217">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="D217" t="str">
         <f>+VLOOKUP(A217,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E217">
-        <f>+VLOOKUP(B217,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B218" t="s">
         <v>42</v>
       </c>
       <c r="C218">
-        <v>116</v>
+        <v>437</v>
       </c>
       <c r="D218" t="str">
         <f>+VLOOKUP(A218,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E218">
-        <f>+VLOOKUP(B218,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B219" t="s">
         <v>42</v>
       </c>
       <c r="C219">
-        <v>138</v>
+        <v>1409</v>
       </c>
       <c r="D219" t="str">
         <f>+VLOOKUP(A219,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E219">
-        <f>+VLOOKUP(B219,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B220" t="s">
         <v>42</v>
       </c>
       <c r="C220">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D220" t="str">
         <f>+VLOOKUP(A220,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
       </c>
       <c r="E220">
-        <f>+VLOOKUP(B220,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B221" t="s">
         <v>42</v>
       </c>
       <c r="C221">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="D221" t="str">
         <f>+VLOOKUP(A221,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
       </c>
       <c r="E221">
-        <f>+VLOOKUP(B221,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C222">
-        <v>437</v>
+        <v>260</v>
       </c>
       <c r="D222" t="str">
         <f>+VLOOKUP(A222,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E222">
-        <f>+VLOOKUP(B222,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C223">
-        <v>1409</v>
+        <v>130</v>
       </c>
       <c r="D223" t="str">
         <f>+VLOOKUP(A223,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E223">
-        <f>+VLOOKUP(B223,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C224">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D224" t="str">
         <f>+VLOOKUP(A224,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E224">
-        <f>+VLOOKUP(B224,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C225">
-        <v>209</v>
+        <v>695</v>
       </c>
       <c r="D225" t="str">
         <f>+VLOOKUP(A225,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zontes.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
       </c>
       <c r="E225">
-        <f>+VLOOKUP(B225,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B226" t="s">
         <v>43</v>
       </c>
       <c r="C226">
-        <v>260</v>
+        <v>1411</v>
       </c>
       <c r="D226" t="str">
         <f>+VLOOKUP(A226,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
       </c>
       <c r="E226">
-        <f>+VLOOKUP(B226,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B227" t="s">
         <v>43</v>
       </c>
       <c r="C227">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D227" t="str">
         <f>+VLOOKUP(A227,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
       </c>
       <c r="E227">
-        <f>+VLOOKUP(B227,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B228" t="s">
         <v>43</v>
       </c>
       <c r="C228">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D228" t="str">
         <f>+VLOOKUP(A228,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
       </c>
       <c r="E228">
-        <f>+VLOOKUP(B228,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
         <v>43</v>
       </c>
       <c r="C229">
-        <v>695</v>
+        <v>238</v>
       </c>
       <c r="D229" t="str">
         <f>+VLOOKUP(A229,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
       </c>
       <c r="E229">
-        <f>+VLOOKUP(B229,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B230" t="s">
         <v>43</v>
       </c>
       <c r="C230">
-        <v>1411</v>
+        <v>241</v>
       </c>
       <c r="D230" t="str">
         <f>+VLOOKUP(A230,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
       </c>
       <c r="E230">
-        <f>+VLOOKUP(B230,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B231" t="s">
         <v>43</v>
       </c>
       <c r="C231">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D231" t="str">
         <f>+VLOOKUP(A231,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
       </c>
       <c r="E231">
-        <f>+VLOOKUP(B231,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B232" t="s">
         <v>43</v>
       </c>
       <c r="C232">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D232" t="str">
         <f>+VLOOKUP(A232,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
       </c>
       <c r="E232">
-        <f>+VLOOKUP(B232,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B233" t="s">
         <v>43</v>
       </c>
       <c r="C233">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="D233" t="str">
         <f>+VLOOKUP(A233,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
       </c>
       <c r="E233">
-        <f>+VLOOKUP(B233,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B234" t="s">
         <v>43</v>
       </c>
       <c r="C234">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D234" t="str">
         <f>+VLOOKUP(A234,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
       </c>
       <c r="E234">
-        <f>+VLOOKUP(B234,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B235" t="s">
         <v>43</v>
       </c>
       <c r="C235">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D235" t="str">
         <f>+VLOOKUP(A235,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
       </c>
       <c r="E235">
-        <f>+VLOOKUP(B235,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B236" t="s">
         <v>43</v>
       </c>
       <c r="C236">
-        <v>91</v>
+        <v>1431</v>
       </c>
       <c r="D236" t="str">
         <f>+VLOOKUP(A236,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
       </c>
       <c r="E236">
-        <f>+VLOOKUP(B236,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B237" t="s">
         <v>43</v>
       </c>
       <c r="C237">
-        <v>354</v>
+        <v>125</v>
       </c>
       <c r="D237" t="str">
         <f>+VLOOKUP(A237,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
       </c>
       <c r="E237">
-        <f>+VLOOKUP(B237,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C238">
-        <v>323</v>
+        <v>1007</v>
       </c>
       <c r="D238" t="str">
         <f>+VLOOKUP(A238,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/bajaj.png</v>
       </c>
       <c r="E238">
-        <f>+VLOOKUP(B238,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C239">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D239" t="str">
         <f>+VLOOKUP(A239,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Triumph.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/benelli.png</v>
       </c>
       <c r="E239">
-        <f>+VLOOKUP(B239,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B240" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C240">
-        <v>1431</v>
+        <v>108</v>
       </c>
       <c r="D240" t="str">
         <f>+VLOOKUP(A240,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/BMW.png</v>
       </c>
       <c r="E240">
-        <f>+VLOOKUP(B240,Hoja4!$E$3:$F$16,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C241">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="D241" t="str">
         <f>+VLOOKUP(A241,Hoja2!$B$4:$F$30,5,0)</f>
-        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/zonzeng.png</v>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Euromot.png</v>
       </c>
       <c r="E241">
-        <f>+VLOOKUP(B241,Hoja4!$E$3:$F$16,2,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" t="s">
+        <v>31</v>
+      </c>
+      <c r="C242">
+        <v>343</v>
+      </c>
+      <c r="D242" t="str">
+        <f>+VLOOKUP(A242,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/haojue.png</v>
+      </c>
+      <c r="E242">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243">
+        <v>1029</v>
+      </c>
+      <c r="D243" t="str">
+        <f>+VLOOKUP(A243,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Honda.png</v>
+      </c>
+      <c r="E243">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" t="s">
+        <v>31</v>
+      </c>
+      <c r="C244">
+        <v>148</v>
+      </c>
+      <c r="D244" t="str">
+        <f>+VLOOKUP(A244,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/husqvarna.png</v>
+      </c>
+      <c r="E244">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245">
+        <v>101</v>
+      </c>
+      <c r="D245" t="str">
+        <f>+VLOOKUP(A245,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/kawasaki.png</v>
+      </c>
+      <c r="E245">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>13</v>
       </c>
+      <c r="B246" t="s">
+        <v>31</v>
+      </c>
+      <c r="C246">
+        <v>100</v>
+      </c>
+      <c r="D246" t="str">
+        <f>+VLOOKUP(A246,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Keeway.png</v>
+      </c>
+      <c r="E246">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247" t="s">
+        <v>31</v>
+      </c>
+      <c r="C247">
+        <v>162</v>
+      </c>
+      <c r="D247" t="str">
+        <f>+VLOOKUP(A247,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/KTM.png</v>
+      </c>
+      <c r="E247">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" t="s">
+        <v>31</v>
+      </c>
+      <c r="C248">
+        <v>204</v>
+      </c>
+      <c r="D248" t="str">
+        <f>+VLOOKUP(A248,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/loncinz.png</v>
+      </c>
+      <c r="E248">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>17</v>
+      </c>
+      <c r="B249" t="s">
+        <v>31</v>
+      </c>
+      <c r="C249">
+        <v>364</v>
+      </c>
+      <c r="D249" t="str">
+        <f>+VLOOKUP(A249,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/generico.png</v>
+      </c>
+      <c r="E249">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" t="s">
+        <v>31</v>
+      </c>
+      <c r="C250">
+        <v>120</v>
+      </c>
+      <c r="D250" t="str">
+        <f>+VLOOKUP(A250,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/royalenfield.png</v>
+      </c>
+      <c r="E250">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>21</v>
+      </c>
+      <c r="B251" t="s">
+        <v>31</v>
+      </c>
+      <c r="C251">
+        <v>322</v>
+      </c>
+      <c r="D251" t="str">
+        <f>+VLOOKUP(A251,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/Suzuki.png</v>
+      </c>
+      <c r="E251">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" t="s">
+        <v>31</v>
+      </c>
+      <c r="C252">
+        <v>218</v>
+      </c>
+      <c r="D252" t="str">
+        <f>+VLOOKUP(A252,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/takasaki.png</v>
+      </c>
+      <c r="E252">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>27</v>
+      </c>
+      <c r="B253" t="s">
+        <v>31</v>
+      </c>
+      <c r="C253">
+        <v>1514</v>
+      </c>
+      <c r="D253" t="str">
+        <f>+VLOOKUP(A253,Hoja2!$B$4:$F$30,5,0)</f>
+        <v>https://raw.githubusercontent.com/Sud-Austral/LOGOS-DATA/main/Motos%20New/yamaha.png</v>
+      </c>
+      <c r="E253">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C241">
-    <sortCondition ref="B2:B241"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C253">
+    <sortCondition ref="B2:B253"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11311,24 +11352,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB49151-3C4C-4BD8-AB15-4EEB39B71241}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11336,12 +11377,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11358,7 +11399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -11375,7 +11416,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -11392,7 +11433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -11409,7 +11450,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -11426,7 +11467,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -11443,7 +11484,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -11460,7 +11501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -11477,7 +11518,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -11494,7 +11535,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -11511,7 +11552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -11528,7 +11569,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -11545,7 +11586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -11562,7 +11603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -11579,7 +11620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -11596,7 +11637,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -11613,7 +11654,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -11630,7 +11671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -11647,7 +11688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -11664,7 +11705,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -11681,7 +11722,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -11698,7 +11739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -11715,7 +11756,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -11732,7 +11773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -11749,7 +11790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -11766,7 +11807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -11783,7 +11824,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -11800,7 +11841,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
